--- a/public/upload/report/Laporan Barang Keluar.xlsx
+++ b/public/upload/report/Laporan Barang Keluar.xlsx
@@ -15,9 +15,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="7">
-  <si>
-    <t>DATA BARANG KELUAR 26-10-2021</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="13">
+  <si>
+    <t>DATA BARANG KELUAR 01-10-2021 SAMPAI 31-10-2021</t>
   </si>
   <si>
     <t>NO</t>
@@ -26,6 +26,9 @@
     <t>TANGGAL KELUAR</t>
   </si>
   <si>
+    <t>WAKTU MASUK</t>
+  </si>
+  <si>
     <t>BARCODE</t>
   </si>
   <si>
@@ -36,6 +39,21 @@
   </si>
   <si>
     <t>JUMLAH</t>
+  </si>
+  <si>
+    <t>KETERANGAN</t>
+  </si>
+  <si>
+    <t>29-10-2021</t>
+  </si>
+  <si>
+    <t>3:49 AM</t>
+  </si>
+  <si>
+    <t>Air Accu Tambah</t>
+  </si>
+  <si>
+    <t>BUAH</t>
   </si>
 </sst>
 </file>
@@ -94,7 +112,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
@@ -105,6 +123,9 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="3" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
   </cellXfs>
@@ -406,10 +427,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A3" sqref="A3:F3"/>
+      <selection activeCell="A3" sqref="A3:H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -420,9 +441,11 @@
     <col min="4" max="4" width="30" customWidth="true" style="0"/>
     <col min="5" max="5" width="20" customWidth="true" style="0"/>
     <col min="6" max="6" width="20" customWidth="true" style="0"/>
+    <col min="7" max="7" width="20" customWidth="true" style="0"/>
+    <col min="8" max="8" width="30" customWidth="true" style="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -431,8 +454,10 @@
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:8">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
@@ -450,12 +475,44 @@
       </c>
       <c r="F3" s="3" t="s">
         <v>6</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="3">
+        <v>1</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="3">
+        <v>8993002010288</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="H4" s="3">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <mergeCells>
-    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A1:H1"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
